--- a/Crawling/crawling_data/day_genie/day_genie_20220206.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220206.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="233">
   <si>
     <t>날짜</t>
   </si>
@@ -52,8 +52,7 @@
     <t>리무진 (Feat. MINO) (Prod. by GRAY)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>다정히 내 이름을 부르면</t>
@@ -236,8 +235,7 @@
     <t>비와 당신</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
@@ -553,9 +551,6 @@
   </si>
   <si>
     <t>쇼미더머니 10 Episode 3</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
@@ -1214,7 +1209,7 @@
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1231,7 +1226,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1248,7 +1243,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1282,7 +1277,7 @@
         <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1316,7 +1311,7 @@
         <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1350,7 +1345,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1418,7 +1413,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1469,7 +1464,7 @@
         <v>111</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1503,7 +1498,7 @@
         <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1520,7 +1515,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1554,7 +1549,7 @@
         <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1571,7 +1566,7 @@
         <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1623,7 +1618,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1640,7 +1635,7 @@
         <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1657,7 +1652,7 @@
         <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1674,7 +1669,7 @@
         <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1708,7 +1703,7 @@
         <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1759,7 +1754,7 @@
         <v>135</v>
       </c>
       <c r="E40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1776,7 +1771,7 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1793,7 +1788,7 @@
         <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1844,7 +1839,7 @@
         <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1861,7 +1856,7 @@
         <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1895,7 +1890,7 @@
         <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1912,7 +1907,7 @@
         <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1929,7 +1924,7 @@
         <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1946,7 +1941,7 @@
         <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1963,7 +1958,7 @@
         <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1980,7 +1975,7 @@
         <v>143</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1997,7 +1992,7 @@
         <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2014,7 +2009,7 @@
         <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2048,7 +2043,7 @@
         <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2065,7 +2060,7 @@
         <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2082,7 +2077,7 @@
         <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2099,7 +2094,7 @@
         <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2116,7 +2111,7 @@
         <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2150,7 +2145,7 @@
         <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2167,7 +2162,7 @@
         <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2184,7 +2179,7 @@
         <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2201,7 +2196,7 @@
         <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2218,7 +2213,7 @@
         <v>132</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2235,7 +2230,7 @@
         <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2252,7 +2247,7 @@
         <v>146</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2269,7 +2264,7 @@
         <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2303,7 +2298,7 @@
         <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2320,7 +2315,7 @@
         <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2354,7 +2349,7 @@
         <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2371,7 +2366,7 @@
         <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2388,7 +2383,7 @@
         <v>117</v>
       </c>
       <c r="E77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2405,7 +2400,7 @@
         <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2422,7 +2417,7 @@
         <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2524,7 +2519,7 @@
         <v>164</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2558,7 +2553,7 @@
         <v>166</v>
       </c>
       <c r="E87" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2626,7 +2621,7 @@
         <v>134</v>
       </c>
       <c r="E91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2660,7 +2655,7 @@
         <v>166</v>
       </c>
       <c r="E93" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2677,7 +2672,7 @@
         <v>117</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2694,7 +2689,7 @@
         <v>171</v>
       </c>
       <c r="E95" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2711,7 +2706,7 @@
         <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2728,7 +2723,7 @@
         <v>172</v>
       </c>
       <c r="E97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2762,7 +2757,7 @@
         <v>174</v>
       </c>
       <c r="E99" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2779,7 +2774,7 @@
         <v>175</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:5">
